--- a/이슈일괄.xlsx
+++ b/이슈일괄.xlsx
@@ -105,17 +105,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>포스코 방화벽 정책관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">(1-01) 프로젝트 범위의 이기종 방화벽 (PaloAlto,   CISCO) 연동 기능 확인 
 - 로그포맷 파싱오류, 로그레벨 변경 필요 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1-02) 연동된 방화벽 별 보안정책.라우팅.객체 필요정보 자동 수집 기능 확인
-- 개별NAT 미수집</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -373,6 +364,16 @@
   <si>
     <t>주니퍼 서비스객체 그룹명 차이</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스코방화벽정책관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1-02) 연동된 방화벽 별 보안정책.라우팅.객체 필요정보 자동 수집 기능 확인
+- 개별NAT 미수집
+- NAT정책을 수집하였는데 Network Object NAT를 수집하지 못함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -765,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -774,9 +775,9 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="4" max="4" width="51.375" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="37.75" customWidth="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
     <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
@@ -813,394 +814,394 @@
     </row>
     <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="81" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/이슈일괄.xlsx
+++ b/이슈일괄.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>project_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,10 @@
 - 개별NAT 미수집
 - NAT정책을 수집하였는데 Network Object NAT를 수집하지 못함</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_fixplan_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -781,9 +785,10 @@
     <col min="7" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="18.75" customWidth="1"/>
     <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -811,8 +816,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -832,7 +840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -850,7 +858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -870,7 +878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -888,7 +896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -908,7 +916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -928,7 +936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -948,7 +956,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -968,7 +976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="108" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -988,7 +996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1008,7 +1016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="81" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -1068,7 +1076,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -1088,7 +1096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1128,7 +1136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
